--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C76D75F-8EB7-4BD4-A5B7-FE07220D3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69116551-424E-4096-8218-99C57B283049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,11 +315,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Y
-N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AccuOverAmt</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -551,12 +546,6 @@
 1:放款戶
 2:保貸戶
 3:保證人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y
-N
-若有N階段還款的情況,此區會存入大於0之自然數代表N:第N階段還款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -675,6 +664,17 @@
   <si>
     <t>forLetter</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y
+N
+若有N階段還款的情況,此區會存入大於0之自然數I代表第I階段還款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1413,7 +1413,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>37</v>
@@ -1453,7 +1453,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>53</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="97.2">
@@ -1471,10 +1471,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>53</v>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="64.8">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4">
@@ -1512,10 +1512,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>37</v>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1533,10 +1533,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>37</v>
@@ -1552,10 +1552,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>37</v>
@@ -1574,10 +1574,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>86</v>
       </c>
       <c r="E17" s="25">
         <v>8</v>
@@ -1590,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>33</v>
@@ -1611,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>34</v>
@@ -1651,13 +1651,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="25">
         <v>8</v>
@@ -1673,10 +1673,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="25">
         <v>8</v>
@@ -1689,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>36</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="22" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1713,7 +1713,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>37</v>
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1736,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>53</v>
@@ -1752,10 +1752,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>37</v>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1778,7 +1778,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>37</v>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1798,10 +1798,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>37</v>
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4">
@@ -1824,7 +1824,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>37</v>
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1847,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>37</v>
@@ -1865,7 +1865,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>39</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="22" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1911,7 +1911,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="25">
         <v>8</v>
@@ -1923,19 +1923,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="25">
         <v>8</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1943,19 +1943,19 @@
         <v>27</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="25">
         <v>8</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1963,10 +1963,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>37</v>
@@ -1975,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1983,10 +1983,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>37</v>
@@ -1995,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2003,13 +2003,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="25">
         <v>8</v>
@@ -2020,19 +2020,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" s="25">
         <v>3</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2040,19 +2040,19 @@
         <v>32</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" s="25">
         <v>8</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2060,19 +2060,19 @@
         <v>33</v>
       </c>
       <c r="B41" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="E41" s="25">
         <v>6</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2080,19 +2080,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="25">
         <v>8</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2100,19 +2100,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="25">
         <v>8</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2120,19 +2120,19 @@
         <v>36</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="25">
         <v>6</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2140,19 +2140,19 @@
         <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="25">
         <v>8</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>68</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>60</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>63</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>71</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>65</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>65</v>
@@ -2386,21 +2386,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>70</v>
